--- a/5조_기능정의.xlsx
+++ b/5조_기능정의.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\SIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B50117E-E819-477C-AA7F-20D943AD1713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5484AECF-B2A3-4C58-A9BD-6D0405DFABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8490" yWindow="915" windowWidth="18795" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능정의" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="210">
   <si>
     <t>기능정의</t>
     <phoneticPr fontId="4"/>
@@ -1131,6 +1131,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,15 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1568,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12:AG12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AI85" sqref="AI85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1"/>
@@ -3031,143 +3031,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="23" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="25" t="s">
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="25" t="s">
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="27"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="30"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="28" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="36"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="38"/>
+      <c r="AO2" s="39"/>
     </row>
     <row r="3" spans="1:41" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="38"/>
-      <c r="AO3" s="39"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" ht="6" customHeight="1">
       <c r="A4" s="2"/>
@@ -3205,59 +3205,59 @@
       <c r="AG4" s="2"/>
     </row>
     <row r="5" spans="1:41" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="40" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="42" t="s">
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="40" t="s">
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
     </row>
     <row r="6" spans="1:41" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="10" t="s">
@@ -3331,25 +3331,25 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="45"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="16"/>
       <c r="AH7" s="10" t="s">
         <v>16</v>
       </c>
@@ -7179,7 +7179,9 @@
       <c r="AE82" s="11"/>
       <c r="AF82" s="11"/>
       <c r="AG82" s="11"/>
-      <c r="AH82" s="10"/>
+      <c r="AH82" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="AI82" s="10"/>
       <c r="AJ82" s="10"/>
       <c r="AK82" s="10"/>
@@ -7220,42 +7222,347 @@
     </row>
   </sheetData>
   <mergeCells count="401">
-    <mergeCell ref="AL61:AO61"/>
-    <mergeCell ref="AL62:AO62"/>
-    <mergeCell ref="AL63:AO63"/>
-    <mergeCell ref="AL64:AO64"/>
-    <mergeCell ref="AL75:AO75"/>
-    <mergeCell ref="AL77:AO77"/>
-    <mergeCell ref="AL78:AO78"/>
-    <mergeCell ref="AL79:AO79"/>
-    <mergeCell ref="AL80:AO80"/>
-    <mergeCell ref="AL65:AO65"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AL67:AO67"/>
-    <mergeCell ref="AL68:AO68"/>
-    <mergeCell ref="AL70:AO70"/>
-    <mergeCell ref="AL71:AO71"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AL73:AO73"/>
-    <mergeCell ref="AL74:AO74"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AL49:AO49"/>
-    <mergeCell ref="AL52:AO52"/>
-    <mergeCell ref="AL48:AO48"/>
-    <mergeCell ref="AL53:AO53"/>
-    <mergeCell ref="AL54:AO54"/>
-    <mergeCell ref="AL57:AO57"/>
-    <mergeCell ref="AL58:AO58"/>
-    <mergeCell ref="AL60:AO60"/>
-    <mergeCell ref="AL35:AO35"/>
-    <mergeCell ref="AL36:AO36"/>
-    <mergeCell ref="AL37:AO37"/>
-    <mergeCell ref="AL39:AO39"/>
-    <mergeCell ref="AL40:AO40"/>
-    <mergeCell ref="AL42:AO42"/>
-    <mergeCell ref="AL43:AO43"/>
-    <mergeCell ref="AL45:AO45"/>
-    <mergeCell ref="AL46:AO46"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL16:AO16"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AG18"/>
+    <mergeCell ref="AH18:AK18"/>
+    <mergeCell ref="AL18:AO18"/>
+    <mergeCell ref="Q15:AG15"/>
+    <mergeCell ref="AL21:AO21"/>
+    <mergeCell ref="Q39:AG39"/>
+    <mergeCell ref="Q40:AG40"/>
+    <mergeCell ref="Q43:AG43"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J68:P68"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:P55"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="J57:P57"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="J60:P60"/>
+    <mergeCell ref="Q54:AG54"/>
+    <mergeCell ref="Q57:AG57"/>
+    <mergeCell ref="Q58:AG58"/>
+    <mergeCell ref="Q60:AG60"/>
+    <mergeCell ref="J61:P61"/>
+    <mergeCell ref="J62:P62"/>
+    <mergeCell ref="Q55:AG55"/>
+    <mergeCell ref="AH55:AK55"/>
+    <mergeCell ref="AL55:AO55"/>
+    <mergeCell ref="Q56:AG56"/>
+    <mergeCell ref="AH56:AK56"/>
+    <mergeCell ref="AL56:AO56"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="AK2:AO3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="Q5:AG5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="A6:E12"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="Q6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="Q8:AG8"/>
+    <mergeCell ref="Q7:AG7"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AG12"/>
+    <mergeCell ref="AH12:AK12"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="A13:E50"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AG13"/>
+    <mergeCell ref="AH13:AK13"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AG14"/>
+    <mergeCell ref="AH14:AK14"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q19:AG19"/>
+    <mergeCell ref="AH19:AK19"/>
+    <mergeCell ref="AL19:AO19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q16:AG16"/>
+    <mergeCell ref="AH20:AK20"/>
+    <mergeCell ref="AL20:AO20"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q17:AG17"/>
+    <mergeCell ref="AH22:AK22"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:P38"/>
+    <mergeCell ref="Q38:AG38"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="AL38:AO38"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:P41"/>
+    <mergeCell ref="Q41:AG41"/>
+    <mergeCell ref="AH41:AK41"/>
+    <mergeCell ref="AL41:AO41"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="J40:P40"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q23:AG23"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL25:AO25"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AL31:AO31"/>
+    <mergeCell ref="AL32:AO32"/>
+    <mergeCell ref="A51:E82"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="Q51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:P59"/>
+    <mergeCell ref="Q59:AG59"/>
+    <mergeCell ref="AH59:AK59"/>
+    <mergeCell ref="AL59:AO59"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:P69"/>
+    <mergeCell ref="Q69:AG69"/>
+    <mergeCell ref="AH69:AK69"/>
+    <mergeCell ref="AL69:AO69"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="J76:P76"/>
+    <mergeCell ref="Q76:AG76"/>
+    <mergeCell ref="J63:P63"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="J65:P65"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="J67:P67"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="J82:P82"/>
+    <mergeCell ref="Q82:AG82"/>
+    <mergeCell ref="AH82:AK82"/>
+    <mergeCell ref="AL82:AO82"/>
+    <mergeCell ref="Q80:AG80"/>
+    <mergeCell ref="Q81:AG81"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="J81:P81"/>
+    <mergeCell ref="Q79:AG79"/>
+    <mergeCell ref="J77:P77"/>
+    <mergeCell ref="J78:P78"/>
+    <mergeCell ref="J80:P80"/>
+    <mergeCell ref="J79:P79"/>
+    <mergeCell ref="AL81:AO81"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AL24:AO24"/>
+    <mergeCell ref="AL27:AO27"/>
+    <mergeCell ref="AH76:AK76"/>
+    <mergeCell ref="AL76:AO76"/>
+    <mergeCell ref="J50:P50"/>
+    <mergeCell ref="Q50:AG50"/>
+    <mergeCell ref="AH50:AK50"/>
+    <mergeCell ref="AL50:AO50"/>
+    <mergeCell ref="J44:P44"/>
+    <mergeCell ref="Q44:AG44"/>
+    <mergeCell ref="AH44:AK44"/>
+    <mergeCell ref="AL44:AO44"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="Q48:AG48"/>
+    <mergeCell ref="J70:P70"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="J73:P73"/>
+    <mergeCell ref="J74:P74"/>
+    <mergeCell ref="J75:P75"/>
+    <mergeCell ref="Q37:AG37"/>
+    <mergeCell ref="Q52:AG52"/>
+    <mergeCell ref="Q53:AG53"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="J53:P53"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="J35:P35"/>
+    <mergeCell ref="J36:P36"/>
+    <mergeCell ref="J46:P46"/>
+    <mergeCell ref="Q20:AG20"/>
+    <mergeCell ref="Q21:AG21"/>
+    <mergeCell ref="Q22:AG22"/>
+    <mergeCell ref="Q24:AG24"/>
+    <mergeCell ref="Q25:AG25"/>
+    <mergeCell ref="Q26:AG26"/>
+    <mergeCell ref="Q27:AG27"/>
+    <mergeCell ref="Q49:AG49"/>
+    <mergeCell ref="Q70:AG70"/>
+    <mergeCell ref="Q63:AG63"/>
+    <mergeCell ref="Q61:AG61"/>
+    <mergeCell ref="Q62:AG62"/>
+    <mergeCell ref="Q46:AG46"/>
+    <mergeCell ref="Q47:AG47"/>
+    <mergeCell ref="Q28:AG28"/>
+    <mergeCell ref="Q29:AG29"/>
+    <mergeCell ref="Q30:AG30"/>
+    <mergeCell ref="Q31:AG31"/>
+    <mergeCell ref="Q32:AG32"/>
+    <mergeCell ref="Q33:AG33"/>
+    <mergeCell ref="Q34:AG34"/>
+    <mergeCell ref="Q35:AG35"/>
+    <mergeCell ref="Q36:AG36"/>
+    <mergeCell ref="Q71:AG71"/>
+    <mergeCell ref="Q72:AG72"/>
+    <mergeCell ref="Q73:AG73"/>
+    <mergeCell ref="Q74:AG74"/>
+    <mergeCell ref="Q75:AG75"/>
+    <mergeCell ref="Q77:AG77"/>
+    <mergeCell ref="Q78:AG78"/>
+    <mergeCell ref="Q64:AG64"/>
+    <mergeCell ref="Q65:AG65"/>
+    <mergeCell ref="Q66:AG66"/>
+    <mergeCell ref="Q67:AG67"/>
+    <mergeCell ref="Q68:AG68"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="AH15:AK15"/>
+    <mergeCell ref="AH16:AK16"/>
+    <mergeCell ref="AH17:AK17"/>
+    <mergeCell ref="AH21:AK21"/>
+    <mergeCell ref="AH23:AK23"/>
+    <mergeCell ref="AH24:AK24"/>
+    <mergeCell ref="AH25:AK25"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="AH27:AK27"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="AH37:AK37"/>
+    <mergeCell ref="AH54:AK54"/>
+    <mergeCell ref="AH57:AK57"/>
+    <mergeCell ref="AH58:AK58"/>
+    <mergeCell ref="AH60:AK60"/>
+    <mergeCell ref="AH61:AK61"/>
+    <mergeCell ref="AH62:AK62"/>
+    <mergeCell ref="AH63:AK63"/>
+    <mergeCell ref="AH39:AK39"/>
+    <mergeCell ref="AH40:AK40"/>
+    <mergeCell ref="AH43:AK43"/>
+    <mergeCell ref="AH46:AK46"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="AH48:AK48"/>
     <mergeCell ref="AH74:AK74"/>
     <mergeCell ref="AH75:AK75"/>
     <mergeCell ref="AH77:AK77"/>
@@ -7280,347 +7587,42 @@
     <mergeCell ref="AH73:AK73"/>
     <mergeCell ref="AH52:AK52"/>
     <mergeCell ref="AH53:AK53"/>
-    <mergeCell ref="AH60:AK60"/>
-    <mergeCell ref="AH61:AK61"/>
-    <mergeCell ref="AH62:AK62"/>
-    <mergeCell ref="AH63:AK63"/>
-    <mergeCell ref="AH39:AK39"/>
-    <mergeCell ref="AH40:AK40"/>
-    <mergeCell ref="AH43:AK43"/>
-    <mergeCell ref="AH46:AK46"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="AH48:AK48"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="AH15:AK15"/>
-    <mergeCell ref="AH16:AK16"/>
-    <mergeCell ref="AH17:AK17"/>
-    <mergeCell ref="AH21:AK21"/>
-    <mergeCell ref="AH23:AK23"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="AH25:AK25"/>
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="AH27:AK27"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="AH35:AK35"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="AH37:AK37"/>
-    <mergeCell ref="AH54:AK54"/>
-    <mergeCell ref="AH57:AK57"/>
-    <mergeCell ref="AH58:AK58"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="Q71:AG71"/>
-    <mergeCell ref="Q72:AG72"/>
-    <mergeCell ref="Q73:AG73"/>
-    <mergeCell ref="Q74:AG74"/>
-    <mergeCell ref="Q75:AG75"/>
-    <mergeCell ref="Q77:AG77"/>
-    <mergeCell ref="Q78:AG78"/>
-    <mergeCell ref="Q64:AG64"/>
-    <mergeCell ref="Q65:AG65"/>
-    <mergeCell ref="Q66:AG66"/>
-    <mergeCell ref="Q67:AG67"/>
-    <mergeCell ref="Q68:AG68"/>
-    <mergeCell ref="Q20:AG20"/>
-    <mergeCell ref="Q21:AG21"/>
-    <mergeCell ref="Q22:AG22"/>
-    <mergeCell ref="Q24:AG24"/>
-    <mergeCell ref="Q25:AG25"/>
-    <mergeCell ref="Q26:AG26"/>
-    <mergeCell ref="Q27:AG27"/>
-    <mergeCell ref="Q49:AG49"/>
-    <mergeCell ref="Q70:AG70"/>
-    <mergeCell ref="Q63:AG63"/>
-    <mergeCell ref="Q61:AG61"/>
-    <mergeCell ref="Q62:AG62"/>
-    <mergeCell ref="Q46:AG46"/>
-    <mergeCell ref="Q47:AG47"/>
-    <mergeCell ref="Q28:AG28"/>
-    <mergeCell ref="Q29:AG29"/>
-    <mergeCell ref="Q30:AG30"/>
-    <mergeCell ref="Q31:AG31"/>
-    <mergeCell ref="Q32:AG32"/>
-    <mergeCell ref="Q33:AG33"/>
-    <mergeCell ref="Q34:AG34"/>
-    <mergeCell ref="Q35:AG35"/>
-    <mergeCell ref="Q36:AG36"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="J53:P53"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="J35:P35"/>
-    <mergeCell ref="J36:P36"/>
-    <mergeCell ref="J46:P46"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="AL24:AO24"/>
-    <mergeCell ref="AL27:AO27"/>
-    <mergeCell ref="AH76:AK76"/>
-    <mergeCell ref="AL76:AO76"/>
-    <mergeCell ref="J50:P50"/>
-    <mergeCell ref="Q50:AG50"/>
-    <mergeCell ref="AH50:AK50"/>
-    <mergeCell ref="AL50:AO50"/>
-    <mergeCell ref="J44:P44"/>
-    <mergeCell ref="Q44:AG44"/>
-    <mergeCell ref="AH44:AK44"/>
-    <mergeCell ref="AL44:AO44"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="Q48:AG48"/>
-    <mergeCell ref="J70:P70"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="J73:P73"/>
-    <mergeCell ref="J74:P74"/>
-    <mergeCell ref="J75:P75"/>
-    <mergeCell ref="Q37:AG37"/>
-    <mergeCell ref="Q52:AG52"/>
-    <mergeCell ref="Q53:AG53"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="J82:P82"/>
-    <mergeCell ref="Q82:AG82"/>
-    <mergeCell ref="AH82:AK82"/>
-    <mergeCell ref="AL82:AO82"/>
-    <mergeCell ref="Q80:AG80"/>
-    <mergeCell ref="Q81:AG81"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="F81:I81"/>
-    <mergeCell ref="J81:P81"/>
-    <mergeCell ref="Q79:AG79"/>
-    <mergeCell ref="J77:P77"/>
-    <mergeCell ref="J78:P78"/>
-    <mergeCell ref="J80:P80"/>
-    <mergeCell ref="J79:P79"/>
-    <mergeCell ref="AL81:AO81"/>
-    <mergeCell ref="A51:E82"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="Q51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:P59"/>
-    <mergeCell ref="Q59:AG59"/>
-    <mergeCell ref="AH59:AK59"/>
-    <mergeCell ref="AL59:AO59"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="J69:P69"/>
-    <mergeCell ref="Q69:AG69"/>
-    <mergeCell ref="AH69:AK69"/>
-    <mergeCell ref="AL69:AO69"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="J76:P76"/>
-    <mergeCell ref="Q76:AG76"/>
-    <mergeCell ref="J63:P63"/>
-    <mergeCell ref="J64:P64"/>
-    <mergeCell ref="J65:P65"/>
-    <mergeCell ref="J66:P66"/>
-    <mergeCell ref="J67:P67"/>
-    <mergeCell ref="AH22:AK22"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:P38"/>
-    <mergeCell ref="Q38:AG38"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="AL38:AO38"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:P41"/>
-    <mergeCell ref="Q41:AG41"/>
-    <mergeCell ref="AH41:AK41"/>
-    <mergeCell ref="AL41:AO41"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="J39:P39"/>
-    <mergeCell ref="J40:P40"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q23:AG23"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL25:AO25"/>
-    <mergeCell ref="AL23:AO23"/>
-    <mergeCell ref="AL22:AO22"/>
-    <mergeCell ref="AL33:AO33"/>
-    <mergeCell ref="AL34:AO34"/>
-    <mergeCell ref="AL31:AO31"/>
-    <mergeCell ref="AL32:AO32"/>
-    <mergeCell ref="A13:E50"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AG13"/>
-    <mergeCell ref="AH13:AK13"/>
-    <mergeCell ref="AL13:AO13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AG14"/>
-    <mergeCell ref="AH14:AK14"/>
-    <mergeCell ref="AL14:AO14"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q19:AG19"/>
-    <mergeCell ref="AH19:AK19"/>
-    <mergeCell ref="AL19:AO19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q16:AG16"/>
-    <mergeCell ref="AH20:AK20"/>
-    <mergeCell ref="AL20:AO20"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q17:AG17"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AG12"/>
-    <mergeCell ref="AH12:AK12"/>
-    <mergeCell ref="AL12:AO12"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="Q6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="Q8:AG8"/>
-    <mergeCell ref="Q7:AG7"/>
-    <mergeCell ref="J61:P61"/>
-    <mergeCell ref="J62:P62"/>
-    <mergeCell ref="Q55:AG55"/>
-    <mergeCell ref="AH55:AK55"/>
-    <mergeCell ref="AL55:AO55"/>
-    <mergeCell ref="Q56:AG56"/>
-    <mergeCell ref="AH56:AK56"/>
-    <mergeCell ref="AL56:AO56"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="AK2:AO3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:P5"/>
-    <mergeCell ref="Q5:AG5"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="A6:E12"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:P6"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="AL29:AO29"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="J60:P60"/>
-    <mergeCell ref="Q54:AG54"/>
-    <mergeCell ref="Q57:AG57"/>
-    <mergeCell ref="Q58:AG58"/>
-    <mergeCell ref="Q60:AG60"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="AL21:AO21"/>
-    <mergeCell ref="Q39:AG39"/>
-    <mergeCell ref="Q40:AG40"/>
-    <mergeCell ref="Q43:AG43"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J68:P68"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:P55"/>
-    <mergeCell ref="AL15:AO15"/>
-    <mergeCell ref="AL16:AO16"/>
-    <mergeCell ref="AL17:AO17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AG18"/>
-    <mergeCell ref="AH18:AK18"/>
-    <mergeCell ref="AL18:AO18"/>
-    <mergeCell ref="Q15:AG15"/>
+    <mergeCell ref="AL35:AO35"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AL37:AO37"/>
+    <mergeCell ref="AL39:AO39"/>
+    <mergeCell ref="AL40:AO40"/>
+    <mergeCell ref="AL42:AO42"/>
+    <mergeCell ref="AL43:AO43"/>
+    <mergeCell ref="AL45:AO45"/>
+    <mergeCell ref="AL46:AO46"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AL49:AO49"/>
+    <mergeCell ref="AL52:AO52"/>
+    <mergeCell ref="AL48:AO48"/>
+    <mergeCell ref="AL53:AO53"/>
+    <mergeCell ref="AL54:AO54"/>
+    <mergeCell ref="AL57:AO57"/>
+    <mergeCell ref="AL58:AO58"/>
+    <mergeCell ref="AL60:AO60"/>
+    <mergeCell ref="AL61:AO61"/>
+    <mergeCell ref="AL62:AO62"/>
+    <mergeCell ref="AL63:AO63"/>
+    <mergeCell ref="AL64:AO64"/>
+    <mergeCell ref="AL75:AO75"/>
+    <mergeCell ref="AL77:AO77"/>
+    <mergeCell ref="AL78:AO78"/>
+    <mergeCell ref="AL79:AO79"/>
+    <mergeCell ref="AL80:AO80"/>
+    <mergeCell ref="AL65:AO65"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AL67:AO67"/>
+    <mergeCell ref="AL68:AO68"/>
+    <mergeCell ref="AL70:AO70"/>
+    <mergeCell ref="AL71:AO71"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="AL73:AO73"/>
+    <mergeCell ref="AL74:AO74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
